--- a/lrb.xlsx
+++ b/lrb.xlsx
@@ -1,261 +1,619 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTC\CS2023Autumn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F150EAA-F097-4C11-A3D4-564A0BD319CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="3945" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14445" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>PB21030761</t>
   </si>
   <si>
+    <t>吴祖鑫</t>
+  </si>
+  <si>
+    <t>2779007423@qq.com</t>
+  </si>
+  <si>
+    <t>206化学与材料科学学院</t>
+  </si>
+  <si>
+    <t>21化院强基</t>
+  </si>
+  <si>
     <t>PB21111715</t>
   </si>
   <si>
+    <t>李宁</t>
+  </si>
+  <si>
+    <t>ln3_1415926535@mail.ustc.edu.cn</t>
+  </si>
+  <si>
+    <t>011计算机科学与技术系</t>
+  </si>
+  <si>
+    <t>21计3班</t>
+  </si>
+  <si>
     <t>PB21111718</t>
   </si>
   <si>
+    <t>刘川毅</t>
+  </si>
+  <si>
+    <t>lcy0809@mail.ustc.edu.cn</t>
+  </si>
+  <si>
     <t>PB23000104</t>
   </si>
   <si>
+    <t>吴浩云</t>
+  </si>
+  <si>
+    <t>wuhaoyun@mail.ustc.edu.cn</t>
+  </si>
+  <si>
+    <t>000少年班学院</t>
+  </si>
+  <si>
+    <t>23少3班</t>
+  </si>
+  <si>
     <t>PB23000192</t>
   </si>
   <si>
+    <t>汤晋之</t>
+  </si>
+  <si>
+    <t>terrytang@mail.ustc.edu.cn</t>
+  </si>
+  <si>
+    <t>23少5班</t>
+  </si>
+  <si>
     <t>PB23020457</t>
   </si>
   <si>
+    <t>许文达</t>
+  </si>
+  <si>
+    <t>pb23020457@mail.ustc.edu.cn</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>23物1班</t>
+  </si>
+  <si>
     <t>PB23020460</t>
   </si>
   <si>
+    <t>李燃</t>
+  </si>
+  <si>
+    <t>lr_2353@mail.ustc.edu.cn</t>
+  </si>
+  <si>
     <t>PB23020590</t>
   </si>
   <si>
+    <t>张权耀</t>
+  </si>
+  <si>
+    <t>zhangquanyao@mail.ustc.edu.cn</t>
+  </si>
+  <si>
+    <t>23物5班</t>
+  </si>
+  <si>
     <t>PB23071353</t>
   </si>
   <si>
+    <t>付炯</t>
+  </si>
+  <si>
+    <t>pingjiang@mail.ustc.edu.cn</t>
+  </si>
+  <si>
+    <t>地空学院</t>
+  </si>
+  <si>
+    <t>23地1班</t>
+  </si>
+  <si>
     <t>PB23111575</t>
   </si>
   <si>
+    <t>赵昶斌</t>
+  </si>
+  <si>
+    <t>3239889356@qq.com</t>
+  </si>
+  <si>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>23计1班</t>
+  </si>
+  <si>
     <t>PB23111580</t>
   </si>
   <si>
+    <t>韦燕霞*</t>
+  </si>
+  <si>
+    <t>weiyanxia@mail.ustc.edu.cn</t>
+  </si>
+  <si>
     <t>PB23111582</t>
   </si>
   <si>
+    <t>房赵智卓</t>
+  </si>
+  <si>
+    <t>fzzz@mail.ustc.edu.cn</t>
+  </si>
+  <si>
     <t>PB23111583</t>
   </si>
   <si>
+    <t>陈俊颖</t>
+  </si>
+  <si>
+    <t>1269747533.qq.com</t>
+  </si>
+  <si>
     <t>PB23111585</t>
   </si>
   <si>
+    <t>刘艺璇*</t>
+  </si>
+  <si>
+    <t>lyx1022@mail.ustc.edu.cn</t>
+  </si>
+  <si>
     <t>PB23111587</t>
   </si>
   <si>
+    <t>朱东胜</t>
+  </si>
+  <si>
+    <t>zy937@mail.ustc.edu.cn</t>
+  </si>
+  <si>
     <t>PB23111590</t>
   </si>
   <si>
+    <t>张豪</t>
+  </si>
+  <si>
+    <t>szhntf@163.com</t>
+  </si>
+  <si>
     <t>PB23111591</t>
   </si>
   <si>
-    <t>吴祖鑫</t>
-  </si>
-  <si>
-    <t>李宁</t>
-  </si>
-  <si>
-    <t>刘川毅</t>
-  </si>
-  <si>
-    <t>吴浩云</t>
-  </si>
-  <si>
-    <t>汤晋之</t>
-  </si>
-  <si>
-    <t>许文达</t>
-  </si>
-  <si>
-    <t>李燃</t>
-  </si>
-  <si>
-    <t>张权耀</t>
-  </si>
-  <si>
-    <t>付炯</t>
-  </si>
-  <si>
-    <t>赵昶斌</t>
-  </si>
-  <si>
-    <t>韦燕霞*</t>
-  </si>
-  <si>
-    <t>房赵智卓</t>
-  </si>
-  <si>
-    <t>陈俊颖</t>
-  </si>
-  <si>
-    <t>刘艺璇*</t>
-  </si>
-  <si>
-    <t>朱东胜</t>
-  </si>
-  <si>
-    <t>张豪</t>
-  </si>
-  <si>
     <t>王佩琦</t>
   </si>
   <si>
-    <t>2779007423@qq.com</t>
-  </si>
-  <si>
-    <t>ln3_1415926535@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>lcy0809@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>wuhaoyun@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>terrytang@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>pb23020457@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>lr_2353@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>zhangquanyao@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>pingjiang@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>3239889356@qq.com</t>
-  </si>
-  <si>
-    <t>weiyanxia@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>fzzz@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>1269747533.qq.com</t>
-  </si>
-  <si>
-    <t>lyx1022@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>zy937@mail.ustc.edu.cn</t>
-  </si>
-  <si>
-    <t>szhntf@163.com</t>
-  </si>
-  <si>
     <t>3148917744@qq.com</t>
   </si>
   <si>
-    <t>206化学与材料科学学院</t>
-  </si>
-  <si>
-    <t>011计算机科学与技术系</t>
-  </si>
-  <si>
-    <t>000少年班学院</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>地空学院</t>
-  </si>
-  <si>
-    <t>计算机学院</t>
-  </si>
-  <si>
-    <t>21化院强基</t>
-  </si>
-  <si>
-    <t>21计3班</t>
-  </si>
-  <si>
-    <t>23少3班</t>
-  </si>
-  <si>
-    <t>23少5班</t>
-  </si>
-  <si>
-    <t>23物1班</t>
-  </si>
-  <si>
-    <t>23物5班</t>
-  </si>
-  <si>
-    <t>23地1班</t>
-  </si>
-  <si>
-    <t>23计1班</t>
+    <t>Lab1</t>
+  </si>
+  <si>
+    <t>已截止</t>
+  </si>
+  <si>
+    <t>Lab2</t>
+  </si>
+  <si>
+    <t>10月22日 23:55</t>
+  </si>
+  <si>
+    <t>Lab3</t>
+  </si>
+  <si>
+    <t>10月29日 23:55</t>
+  </si>
+  <si>
+    <t>Lab4</t>
+  </si>
+  <si>
+    <t>11月12日 23:55</t>
+  </si>
+  <si>
+    <t>Lab5</t>
+  </si>
+  <si>
+    <t>未发布</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -278,27 +636,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -347,7 +992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -382,7 +1027,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -556,367 +1201,452 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F17"/>
+      <selection activeCell="B21" sqref="B21:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="1" ht="22.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>123456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="33.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="33.75" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>123456</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="33.75" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>123456</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="33.75" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>123456</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="33.75" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>123456</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>123456</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="33.75" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>123456</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>123456</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" ht="33.75" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>123456</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="33.75" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>123456</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>123456</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="33.75" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>123456</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="33.75" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>123456</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>123456</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>123456</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>